--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>979180.0697729443</v>
+        <v>1064329.225513852</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4888794.453803539</v>
+        <v>4888794.453803541</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>150.1450882057764</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>81.21477241771947</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -744,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>163.2256387232003</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>187.5255871663201</v>
-      </c>
-      <c r="V3" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>20.00402729331236</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.8610491158148</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>348.8610491158148</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1759271253405</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>105.0430334365232</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>338.0858883099724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H6" t="n">
-        <v>13.19054905490082</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I6" t="n">
-        <v>48.61941455285685</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.88557034998198</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2215075791689</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2055152876975</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8441152680185</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>14.03295637913615</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>125.0721477169168</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>79.64282889566746</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>70.66270691447903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>92.83211646882127</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>129.995090299016</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>93.49542143817384</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>32.71530508318227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734089393</v>
+        <v>25.20549727320319</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>166.7809568069627</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>146.1810208351824</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.2238558644858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>155.8380202720384</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3025074251547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498662</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>14.57567088453339</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>61.36917500886968</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>335.6137863334276</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>209.7083496784893</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>21.27864063894807</v>
       </c>
       <c r="W17" t="n">
-        <v>153.4696656457197</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>14.57567088453339</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>72.12508262678546</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.6619297099712</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>181.8528900316683</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>265.9318059937542</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>56.91547624318695</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>92.49105144235436</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>98.23289823174005</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>28.95911863073212</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>120.6088074159615</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7871683969279</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>85.67453763416893</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.92502798775072</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>134.9249912545468</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>136.086307988264</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>184.3755225607021</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>132.7732256808684</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>6.632494016570329</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>181.7594728473265</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.8915086215178</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>61.36917500886953</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>330.7598727037308</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3395,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>128.9963598623877</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>115.3249935453962</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>17.35112070699288</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292686</v>
+        <v>8.29572184996111</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>141.1446905726936</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.7857799304735</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>63.42545656316664</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292601</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>126.53888249517</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498657</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>160.2383728284214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>88.89700561060549</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>103.6708604288258</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4037,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>45.23443023079569</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.708498988314</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>72.71498498621514</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>75.94848555066373</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097411</v>
+        <v>520.5803211678661</v>
       </c>
       <c r="E2" t="n">
-        <v>293.4024563932561</v>
+        <v>520.5803211678661</v>
       </c>
       <c r="F2" t="n">
-        <v>286.4569556440526</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330561</v>
@@ -4346,34 +4348,34 @@
         <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="T2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097411</v>
+        <v>672.2420264262262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330561</v>
+        <v>395.8081811001083</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330561</v>
+        <v>395.8081811001083</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330561</v>
+        <v>395.8081811001083</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330561</v>
+        <v>236.5707260946528</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546606</v>
@@ -4425,34 +4427,34 @@
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227604</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062755</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897905</v>
+        <v>585.2279661165933</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897905</v>
+        <v>585.2279661165933</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330561</v>
+        <v>585.2279661165933</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330561</v>
+        <v>395.8081811001083</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330561</v>
@@ -4507,31 +4509,31 @@
         <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>49.45491281910444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>701.5584010836759</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="C5" t="n">
-        <v>701.5584010836759</v>
+        <v>1693.393235785938</v>
       </c>
       <c r="D5" t="n">
-        <v>701.5584010836759</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E5" t="n">
-        <v>701.5584010836759</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>694.6129003344724</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>342.2280022376899</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>27.90888392926518</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J5" t="n">
-        <v>80.85342866452243</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K5" t="n">
-        <v>210.9420950112662</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L5" t="n">
-        <v>409.2303506990946</v>
+        <v>669.5878927711877</v>
       </c>
       <c r="M5" t="n">
-        <v>661.5336786524902</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N5" t="n">
-        <v>922.5333466060127</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O5" t="n">
-        <v>1155.652670727843</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P5" t="n">
-        <v>1320.113619600691</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q5" t="n">
-        <v>1395.444196463259</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R5" t="n">
-        <v>1395.444196463259</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S5" t="n">
-        <v>1395.444196463259</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T5" t="n">
-        <v>1395.444196463259</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U5" t="n">
-        <v>1395.444196463259</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V5" t="n">
-        <v>1395.444196463259</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="W5" t="n">
-        <v>1395.444196463259</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="X5" t="n">
-        <v>1395.444196463259</v>
+        <v>2062.355752726349</v>
       </c>
       <c r="Y5" t="n">
-        <v>1053.943299180459</v>
+        <v>2062.355752726349</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.34319060376788</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C6" t="n">
-        <v>90.34319060376788</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D6" t="n">
-        <v>90.34319060376788</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E6" t="n">
-        <v>90.34319060376788</v>
+        <v>458.901244094985</v>
       </c>
       <c r="F6" t="n">
-        <v>90.34319060376788</v>
+        <v>312.36668612187</v>
       </c>
       <c r="G6" t="n">
-        <v>90.34319060376788</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>77.01940367962564</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J6" t="n">
-        <v>40.62444511014941</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K6" t="n">
-        <v>140.5121891979919</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1461291925041</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M6" t="n">
-        <v>551.294285385839</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N6" t="n">
-        <v>801.9424233621467</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.016706323301</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P6" t="n">
-        <v>1155.879008147616</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q6" t="n">
-        <v>1204.133371204992</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R6" t="n">
-        <v>1149.703502164606</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S6" t="n">
-        <v>1004.025211680597</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="T6" t="n">
-        <v>807.8580245213067</v>
+        <v>1539.527977446642</v>
       </c>
       <c r="U6" t="n">
-        <v>579.7326555637122</v>
+        <v>1539.527977446642</v>
       </c>
       <c r="V6" t="n">
-        <v>344.5805473319695</v>
+        <v>1539.527977446642</v>
       </c>
       <c r="W6" t="n">
-        <v>90.34319060376788</v>
+        <v>1525.353274033374</v>
       </c>
       <c r="X6" t="n">
-        <v>90.34319060376788</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="Y6" t="n">
-        <v>90.34319060376788</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.8219775116583</v>
+        <v>338.6408822103605</v>
       </c>
       <c r="C7" t="n">
-        <v>175.8219775116583</v>
+        <v>169.7046992824536</v>
       </c>
       <c r="D7" t="n">
-        <v>175.8219775116583</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="E7" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F7" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G7" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H7" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I7" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J7" t="n">
-        <v>27.90888392926518</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K7" t="n">
-        <v>42.7516076452623</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L7" t="n">
-        <v>91.65098153302921</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M7" t="n">
-        <v>146.4667981137214</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N7" t="n">
-        <v>207.8367430014471</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O7" t="n">
-        <v>244.2087312010597</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P7" t="n">
-        <v>256.2692794264739</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q7" t="n">
-        <v>256.2692794264739</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R7" t="n">
-        <v>256.2692794264739</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S7" t="n">
-        <v>256.2692794264739</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T7" t="n">
-        <v>175.8219775116583</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U7" t="n">
-        <v>175.8219775116583</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V7" t="n">
-        <v>175.8219775116583</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W7" t="n">
-        <v>175.8219775116583</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X7" t="n">
-        <v>175.8219775116583</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.8219775116583</v>
+        <v>520.2893470406002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1332.09903998445</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1332.09903998445</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1332.09903998445</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>946.3107873862057</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>535.3248825965982</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>119.4903658344938</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>119.4903658344938</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>48.11389420370693</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>173.6006955371254</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>412.4113998844091</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>745.5789575721412</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1147.961497459637</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1561.46881589934</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>1938.596789767452</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2225.965789440888</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2393.595193823328</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2405.694710185347</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2311.924895570376</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2311.924895570376</v>
       </c>
       <c r="U8" t="n">
-        <v>3084.006981117057</v>
+        <v>2058.333453515644</v>
       </c>
       <c r="V8" t="n">
-        <v>2752.944093773487</v>
+        <v>2058.333453515644</v>
       </c>
       <c r="W8" t="n">
-        <v>2752.944093773487</v>
+        <v>1705.56479824553</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>1332.09903998445</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1332.09903998445</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5297702181787</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0767409370517</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1423312758004</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.904876270345</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.37031829723</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>175.5994765485111</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>81.15965691399205</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>48.11389420370693</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>104.0351264502469</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>277.7682440873326</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>557.6964019039183</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>903.7162268899244</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1273.302811944934</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1589.182537471365</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>1823.370799411577</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>1930.000254186832</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1904.540155931071</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1767.528648385243</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1573.242163355867</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>1345.147491386247</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1109.995383154505</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1109.995383154505</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1109.995383154505</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>941.5297702181787</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.8811108217975</v>
+        <v>195.0038417016173</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>195.0038417016173</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>195.0038417016173</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>195.0038417016173</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>48.11389420370693</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>48.11389420370693</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>48.11389420370693</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>48.11389420370693</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>48.11389420370693</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>107.4998553139089</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>213.3992373663726</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>328.3135705658655</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>448.3530236739863</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>538.9157986502105</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>597.3459267107187</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>597.3459267107187</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>597.3459267107187</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>597.3459267107187</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>597.3459267107187</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>597.3459267107187</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>342.6614385048318</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>342.6614385048318</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>342.6614385048318</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.5295756520372</v>
+        <v>342.6614385048318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1204.726236768953</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C11" t="n">
-        <v>835.7637198285415</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D11" t="n">
-        <v>477.498021221791</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5057,7 +5059,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2354.931167069967</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1981.465408808887</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1591.326076833075</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5142,28 +5144,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5227,22 +5229,22 @@
         <v>639.3706644025388</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720648</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5011820977084</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V13" t="n">
-        <v>66.51211643218342</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="W13" t="n">
-        <v>66.51211643218342</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218342</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>639.3706644025388</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1632.511388127729</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.548871187317</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D14" t="n">
-        <v>905.2831725805665</v>
+        <v>1156.082344952775</v>
       </c>
       <c r="E14" t="n">
-        <v>519.4949199823222</v>
+        <v>1156.082344952775</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>745.0964401631672</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5276,7 +5278,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5288,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>2782.716318428742</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>2409.250560167662</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>2019.11122819185</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5375,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W16" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1689.318139675982</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C17" t="n">
-        <v>1320.35562273557</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W17" t="n">
-        <v>2839.523069976995</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X17" t="n">
-        <v>2466.057311715915</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y17" t="n">
-        <v>2075.917979740103</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>289.482374659454</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="C19" t="n">
-        <v>289.482374659454</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="D19" t="n">
-        <v>139.3657352471182</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="E19" t="n">
-        <v>139.3657352471182</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>139.3657352471182</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>139.3657352471182</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>139.3657352471182</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T19" t="n">
-        <v>699.120390387711</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U19" t="n">
-        <v>699.120390387711</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V19" t="n">
-        <v>699.120390387711</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="W19" t="n">
-        <v>699.120390387711</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="X19" t="n">
-        <v>471.1308394896937</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.1308394896937</v>
+        <v>639.3706644025388</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>2599.371408077976</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5825,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>647.3667606649364</v>
+        <v>2923.1647776354</v>
       </c>
       <c r="C22" t="n">
-        <v>478.4305777370295</v>
+        <v>2754.228594707493</v>
       </c>
       <c r="D22" t="n">
-        <v>478.4305777370295</v>
+        <v>2604.111955295157</v>
       </c>
       <c r="E22" t="n">
-        <v>478.4305777370295</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>331.5406302391191</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962284</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757124</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>831.0565485757124</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>647.3667606649364</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>647.3667606649364</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V22" t="n">
-        <v>647.3667606649364</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W22" t="n">
-        <v>647.3667606649364</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X22" t="n">
-        <v>647.3667606649364</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="Y22" t="n">
-        <v>647.3667606649364</v>
+        <v>3104.81324246564</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1859.132475219474</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1490.169958279063</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1131.904259672312</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>746.116007074068</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>335.1301022844604</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
         <v>66.51211643218342</v>
@@ -5987,10 +5989,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -5999,7 +6001,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6020,19 +6022,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>3009.337405520488</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="X23" t="n">
-        <v>2635.871647259408</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y23" t="n">
-        <v>2245.732315283596</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>920.7416649986302</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2808.199100674193</v>
+        <v>3036.18865157221</v>
       </c>
       <c r="C25" t="n">
-        <v>2808.199100674193</v>
+        <v>3036.18865157221</v>
       </c>
       <c r="D25" t="n">
-        <v>2808.199100674193</v>
+        <v>2886.072012159875</v>
       </c>
       <c r="E25" t="n">
-        <v>2808.199100674193</v>
+        <v>2738.158918577481</v>
       </c>
       <c r="F25" t="n">
-        <v>2808.199100674193</v>
+        <v>2738.158918577481</v>
       </c>
       <c r="G25" t="n">
-        <v>2714.773796186966</v>
+        <v>2570.4560819522</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J25" t="n">
         <v>2483.053685760609</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L25" t="n">
         <v>2737.074383950637</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N25" t="n">
         <v>3075.815702279682</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P25" t="n">
         <v>3312.68505425063</v>
@@ -6187,10 +6189,10 @@
         <v>3036.18865157221</v>
       </c>
       <c r="X25" t="n">
-        <v>2808.199100674193</v>
+        <v>3036.18865157221</v>
       </c>
       <c r="Y25" t="n">
-        <v>2808.199100674193</v>
+        <v>3036.18865157221</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1506.36381994936</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1137.401303008948</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>779.1356044021979</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>393.3473518039537</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>393.3473518039537</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>393.3473518039537</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>95.76375141272092</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6254,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520488</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V26" t="n">
-        <v>3009.337405520488</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W26" t="n">
-        <v>2656.568750250373</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X26" t="n">
-        <v>2283.102991989294</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y26" t="n">
-        <v>1892.963660013482</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>472.1048757766371</v>
+        <v>450.1356741135884</v>
       </c>
       <c r="C28" t="n">
-        <v>303.1686928487302</v>
+        <v>281.1994911856815</v>
       </c>
       <c r="D28" t="n">
-        <v>153.0520534363945</v>
+        <v>131.0828517733458</v>
       </c>
       <c r="E28" t="n">
-        <v>153.0520534363945</v>
+        <v>131.0828517733458</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>131.0828517733458</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218342</v>
@@ -6415,19 +6417,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="X28" t="n">
-        <v>692.8974549201672</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="Y28" t="n">
-        <v>472.1048757766371</v>
+        <v>631.7841389438281</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2123.189610021302</v>
+        <v>1148.130683918831</v>
       </c>
       <c r="C29" t="n">
-        <v>1754.22709308089</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267228</v>
+        <v>2982.16715683353</v>
       </c>
       <c r="V29" t="n">
-        <v>2866.097597267228</v>
+        <v>2651.104269489959</v>
       </c>
       <c r="W29" t="n">
-        <v>2513.328941997114</v>
+        <v>2298.335614219845</v>
       </c>
       <c r="X29" t="n">
-        <v>2513.328941997114</v>
+        <v>1924.869855958765</v>
       </c>
       <c r="Y29" t="n">
-        <v>2123.189610021302</v>
+        <v>1534.730523982953</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>384.3315924698002</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C31" t="n">
-        <v>384.3315924698002</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D31" t="n">
-        <v>234.2149530574644</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574644</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962282</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372931</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181845</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181845</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181845</v>
+        <v>2725.915420429056</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181845</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W31" t="n">
-        <v>786.77263644357</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X31" t="n">
-        <v>786.77263644357</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.9800573000399</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1363.124011696101</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="C32" t="n">
-        <v>994.1614947556898</v>
+        <v>1624.638712032429</v>
       </c>
       <c r="D32" t="n">
-        <v>635.8957961489393</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>250.1075435506951</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6713,37 +6715,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>2866.097597267229</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W32" t="n">
-        <v>2513.328941997115</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X32" t="n">
-        <v>2139.863183736035</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y32" t="n">
-        <v>1749.723851760223</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2633.74760759844</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C34" t="n">
         <v>2471.230932223169</v>
@@ -6856,52 +6858,52 @@
         <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>2533.219997888693</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609171</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.18865157221</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X34" t="n">
-        <v>3036.18865157221</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y34" t="n">
-        <v>2815.39607242868</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1952.040104645723</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C35" t="n">
-        <v>1952.040104645723</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2325.505862906803</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X35" t="n">
-        <v>1952.040104645723</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y35" t="n">
-        <v>1952.040104645723</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="36">
@@ -7002,19 +7004,19 @@
         <v>1219.471239609104</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064751</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986303</v>
+        <v>920.7416649986302</v>
       </c>
       <c r="K36" t="n">
         <v>1159.005863978977</v>
@@ -7041,13 +7043,13 @@
         <v>3325.461468201686</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V36" t="n">
         <v>2540.160626275695</v>
@@ -7056,10 +7058,10 @@
         <v>2285.923269547493</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>196.8114698285347</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
         <v>66.51211643218342</v>
@@ -7117,28 +7119,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T37" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U37" t="n">
-        <v>417.6040489720648</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V37" t="n">
-        <v>417.6040489720648</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W37" t="n">
-        <v>417.6040489720648</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X37" t="n">
-        <v>417.6040489720648</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.8114698285347</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2065.110222835251</v>
+        <v>1628.178203944119</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.147705894839</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="D38" t="n">
-        <v>1337.882007288089</v>
+        <v>900.9499883969572</v>
       </c>
       <c r="E38" t="n">
-        <v>952.0937546898447</v>
+        <v>900.9499883969572</v>
       </c>
       <c r="F38" t="n">
-        <v>541.1078499002372</v>
+        <v>489.9640836073497</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0353997452336</v>
+        <v>74.89163345234613</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927156</v>
+        <v>74.89163345234613</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136265</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W38" t="n">
-        <v>3215.315153136265</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X38" t="n">
-        <v>2841.849394875185</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y38" t="n">
-        <v>2451.710062899373</v>
+        <v>2014.778044008241</v>
       </c>
     </row>
     <row r="39">
@@ -7245,58 +7247,58 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="C40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="D40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="E40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="F40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="G40" t="n">
-        <v>209.0825109500557</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962279</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372931</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596503</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588479</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886953</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068849</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596435</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181842</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181842</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181842</v>
+        <v>3079.426091709654</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181842</v>
+        <v>2857.65947627918</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181842</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="V40" t="n">
-        <v>666.2025176122974</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="W40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="X40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="Y40" t="n">
-        <v>376.7853475753367</v>
+        <v>2568.556609404823</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1285.591601078693</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C41" t="n">
-        <v>916.6290841382818</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>558.3633855315313</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>172.5751329332871</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>172.5751329332871</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>172.5751329332871</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7409,13 +7411,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,22 +7441,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.565186649821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.796531379707</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X41" t="n">
-        <v>2062.330773118627</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y41" t="n">
-        <v>1672.191441142815</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="42">
@@ -7512,28 +7514,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962279</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372931</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596503</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588479</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886953</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068849</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596435</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181842</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181842</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181842</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133538</v>
+        <v>3036.502954734813</v>
       </c>
       <c r="V43" t="n">
-        <v>248.1605812624231</v>
+        <v>2781.818466528926</v>
       </c>
       <c r="W43" t="n">
-        <v>248.1605812624231</v>
+        <v>2781.818466528926</v>
       </c>
       <c r="X43" t="n">
-        <v>248.1605812624231</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1133.32083113111</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>764.3583141906981</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>406.0926155839476</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839476</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839476</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296684</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3220.887780771972</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U44" t="n">
-        <v>2967.357304045808</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V44" t="n">
-        <v>2636.294416702237</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W44" t="n">
-        <v>2283.525761432123</v>
+        <v>2379.052697783281</v>
       </c>
       <c r="X44" t="n">
-        <v>1910.060003171043</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y44" t="n">
-        <v>1519.920671195232</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T45" t="n">
         <v>2242.82830229719</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3248.890179638802</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="C46" t="n">
-        <v>3079.953996710895</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="D46" t="n">
-        <v>3079.953996710895</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="E46" t="n">
-        <v>2932.040903128502</v>
+        <v>2955.926112596302</v>
       </c>
       <c r="F46" t="n">
-        <v>2785.150955630592</v>
+        <v>2882.476632812246</v>
       </c>
       <c r="G46" t="n">
-        <v>2617.448119005311</v>
+        <v>2714.773796186965</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.230932223168</v>
       </c>
       <c r="J46" t="n">
         <v>2483.053685760608</v>
@@ -7810,46 +7812,46 @@
         <v>2581.364540028278</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950635</v>
       </c>
       <c r="M46" t="n">
         <v>2904.506865249833</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.81570227968</v>
       </c>
       <c r="O46" t="n">
         <v>3213.73405149787</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.685054250628</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="U46" t="n">
-        <v>3325.60582160917</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="V46" t="n">
-        <v>3325.60582160917</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="W46" t="n">
-        <v>3248.890179638802</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="X46" t="n">
-        <v>3248.890179638802</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="Y46" t="n">
-        <v>3248.890179638802</v>
+        <v>3103.839206178695</v>
       </c>
     </row>
   </sheetData>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>255.083705381415</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>170.9384612922584</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>131.8582917620358</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7684683149583</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>75.30793932002587</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>139.5326190389237</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>138.0881058334842</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,16 +23785,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>306.4736178311869</v>
       </c>
       <c r="W17" t="n">
-        <v>195.7713030716934</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>131.8582917620358</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>24.22733778305263</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131.0719119535094</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>14.88174980530036</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>37.69605924450087</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.9899196596992</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,16 +24262,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>292.3254924742261</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>73.53475681667386</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>46.52211668258073</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>12.61781114219385</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>83.30916272365872</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>59.74651038876232</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>102.1007802712775</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24655,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>219.7580503661362</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>114.908863970638</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,25 +24888,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>101.8363156449107</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>153.7497726557226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>348.0505476041126</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>225.1165728943849</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>6.355312477110004</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149585</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>23.92316891695219</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>38.25046123624011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>171.1980047911948</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>277.2566436803276</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>33.28120792296487</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>3.610324341627177</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>34.98324540096843</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>231.1823078241539</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881767</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>222.702086222243</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25837,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>91.8992704954066</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>136.8126497784316</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>100.2471097107943</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>304.0065384866173</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>72.7060630367161</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>210.5745127859273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773246.2968165617</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773246.2968165614</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773246.2968165614</v>
+        <v>773246.2968165611</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719628</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>378397.1239740618</v>
       </c>
       <c r="F2" t="n">
+        <v>378397.1239740619</v>
+      </c>
+      <c r="G2" t="n">
+        <v>378397.1239740618</v>
+      </c>
+      <c r="H2" t="n">
         <v>378397.1239740617</v>
       </c>
-      <c r="G2" t="n">
-        <v>378397.1239740619</v>
-      </c>
-      <c r="H2" t="n">
-        <v>378397.1239740619</v>
-      </c>
       <c r="I2" t="n">
-        <v>378397.1239740619</v>
+        <v>378397.123974062</v>
       </c>
       <c r="J2" t="n">
-        <v>378397.1239740619</v>
+        <v>378397.1239740618</v>
       </c>
       <c r="K2" t="n">
         <v>378397.1239740617</v>
       </c>
       <c r="L2" t="n">
-        <v>378397.123974062</v>
+        <v>378397.1239740618</v>
       </c>
       <c r="M2" t="n">
+        <v>378397.1239740619</v>
+      </c>
+      <c r="N2" t="n">
         <v>378397.1239740618</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>378397.1239740618</v>
+      </c>
+      <c r="P2" t="n">
         <v>378397.1239740617</v>
-      </c>
-      <c r="O2" t="n">
-        <v>378397.1239740619</v>
-      </c>
-      <c r="P2" t="n">
-        <v>378397.123974062</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26368,16 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178589.1710753392</v>
+        <v>392510.2442861781</v>
       </c>
       <c r="D3" t="n">
-        <v>494533.5498516886</v>
+        <v>59871.45719829561</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>219439.6828815239</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854466</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>41522.58517101748</v>
+        <v>91259.95686487787</v>
       </c>
       <c r="L3" t="n">
-        <v>122126.633967451</v>
+        <v>15010.50346109829</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>57311.38215281571</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>231055.5957741328</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>157675.7383646806</v>
       </c>
       <c r="E4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="G4" t="n">
         <v>584.646989006123</v>
       </c>
-      <c r="G4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="H4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="I4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="I4" t="n">
-        <v>584.646989006123</v>
       </c>
       <c r="J4" t="n">
         <v>584.646989006123</v>
@@ -26451,13 +26453,13 @@
         <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="O4" t="n">
         <v>584.6469890061228</v>
       </c>
-      <c r="O4" t="n">
-        <v>584.6469890061229</v>
-      </c>
       <c r="P4" t="n">
-        <v>584.6469890061229</v>
+        <v>584.6469890061227</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69822.62854487318</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>89860.11994103159</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,10 +26484,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26494,10 +26496,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26509,7 +26511,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454780.250094626</v>
+        <v>-454780.2500946259</v>
       </c>
       <c r="C6" t="n">
-        <v>-7368.377722382371</v>
+        <v>-179813.2985589849</v>
       </c>
       <c r="D6" t="n">
-        <v>-223965.2168451714</v>
+        <v>164691.7021679552</v>
       </c>
       <c r="E6" t="n">
-        <v>303506.1364236624</v>
+        <v>84066.45354213848</v>
       </c>
       <c r="F6" t="n">
         <v>303506.1364236623</v>
@@ -26537,22 +26539,22 @@
         <v>303506.1364236624</v>
       </c>
       <c r="H6" t="n">
-        <v>303506.1364236625</v>
+        <v>303506.1364236623</v>
       </c>
       <c r="I6" t="n">
         <v>303506.1364236624</v>
       </c>
       <c r="J6" t="n">
-        <v>254441.1916951178</v>
+        <v>254441.1916951177</v>
       </c>
       <c r="K6" t="n">
-        <v>261983.5512526449</v>
+        <v>212246.1795587844</v>
       </c>
       <c r="L6" t="n">
-        <v>181379.5024562115</v>
+        <v>288495.6329625641</v>
       </c>
       <c r="M6" t="n">
-        <v>303506.1364236624</v>
+        <v>246194.7542708468</v>
       </c>
       <c r="N6" t="n">
         <v>303506.1364236624</v>
@@ -26561,7 +26563,7 @@
         <v>303506.1364236625</v>
       </c>
       <c r="P6" t="n">
-        <v>303506.1364236626</v>
+        <v>303506.1364236623</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.3521448913596</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>902.1082727621246</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26792,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>348.8610491158148</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>601.4236775463366</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
@@ -26802,22 +26804,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26829,7 +26831,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26960,16 +26962,16 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>138.882203978455</v>
+        <v>305.24072362478</v>
       </c>
       <c r="D3" t="n">
-        <v>402.4245557019385</v>
+        <v>48.39760822443975</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>187.6684278311735</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.3354619494947</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="D4" t="n">
-        <v>482.5404062864779</v>
+        <v>59.30872082017278</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>229.977777855956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.3354619494944</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864781</v>
+        <v>59.30872082017255</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.9777778559562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.3354619494947</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864779</v>
+        <v>59.30872082017278</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.977777855956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>204.5379534149065</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>331.8830608123386</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988668</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27464,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,22 +27511,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>30.23706061590647</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377083</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310518</v>
+        <v>69.57494842622495</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715738</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098424</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27554,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>133.4296435385072</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27561,7 +27563,7 @@
         <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425638</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.87279254766582</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.67846369623948</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>103.9466692048817</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.01012405923012</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0530866647906</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>210.999833426395</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.12459493159</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>222.7092250336117</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.15205034608118</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8650616062745</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>84.76612703960721</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>237.6620267817835</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>23.54332530129552</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7514918840645</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2070020532798</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1757061518383</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>39.36365699972229</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.71482775085056</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5615273012242</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4157117786651</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T7" t="n">
-        <v>143.0067685965658</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2514209487966</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808924</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>33.54758220057214</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
-        <v>121.000081659886</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27992,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>38.90173897034163</v>
       </c>
     </row>
     <row r="10">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>33.65095934675492</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.7638628228272</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>106.5295869551745</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.98401099232986</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.28665244236504</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>104.1486779823913</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.9949191299504</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.360797487609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30508,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-3.583531681307894e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30536,7 +30538,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.76322470308084</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H5" t="n">
-        <v>28.29887499042666</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5292203655242</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J5" t="n">
-        <v>234.5252426431077</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K5" t="n">
-        <v>351.4925443245197</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L5" t="n">
-        <v>436.0575823314301</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M5" t="n">
-        <v>485.198079644844</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N5" t="n">
-        <v>493.0490918324725</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O5" t="n">
-        <v>465.5722761912123</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P5" t="n">
-        <v>397.355166333904</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.3971816548213</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R5" t="n">
-        <v>173.575413754902</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
-        <v>62.96698292145471</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T5" t="n">
-        <v>12.09601613773638</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2210579762464672</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.478455556936132</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H6" t="n">
-        <v>14.27876814198843</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I6" t="n">
-        <v>50.90296544714315</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J6" t="n">
-        <v>139.6816278594791</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K6" t="n">
-        <v>238.7381501741999</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L6" t="n">
-        <v>321.0129050268562</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6069189657909</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N6" t="n">
-        <v>384.521649433139</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O6" t="n">
-        <v>351.7621868294489</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P6" t="n">
-        <v>282.3201668328304</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.7235549520578</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R6" t="n">
-        <v>91.79393361398198</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S6" t="n">
-        <v>27.46166352466892</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T6" t="n">
-        <v>5.959213407124143</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09726681295632451</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.239487474394255</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02017045415984</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I7" t="n">
-        <v>37.27476877541996</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J7" t="n">
-        <v>87.63176443967382</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0059083887143</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L7" t="n">
-        <v>184.2779832385786</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M7" t="n">
-        <v>194.2952956452739</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N7" t="n">
-        <v>189.6753877861682</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O7" t="n">
-        <v>175.1959204716535</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9103759940105</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.7901738785953</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R7" t="n">
-        <v>55.7318640759453</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S7" t="n">
-        <v>21.60088625830714</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T7" t="n">
-        <v>5.295991936048178</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06760840769423215</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.626565920651754</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>37.14056823487478</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>139.8131826559269</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>307.8002493079171</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>461.3127847291059</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>572.2993015232522</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>636.7932432146428</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>647.0972236366947</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>611.0355587632138</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>521.5047125971234</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>391.6283205637824</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>227.807271513141</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>82.64037091685194</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.87529231765306</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2901252736521403</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.94038383197891</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>18.74002279832263</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>66.80707491681773</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>183.3237198449899</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>313.3294365875768</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>421.3100947461224</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>491.6490086553578</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>504.6614949671814</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>461.6666742691224</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>370.5282073539376</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>247.6882940610271</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>120.4740066907608</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>36.04177863346788</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>7.821108515739549</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1276568310512441</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.626752623013667</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.46330968461243</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>48.92088797208375</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>115.0114104470663</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>188.9990774737696</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>241.8537490615047</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>255.0008679874969</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>248.9375173017189</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>229.9340889328773</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>196.7483354233983</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>136.2183491870808</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>73.14471339477814</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>28.34986162106544</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>6.950670298331121</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08873196125529104</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32494,7 +32496,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806949</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32567,7 +32569,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987486</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33278,10 +33280,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34138,7 +34140,7 @@
         <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490575003</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
         <v>781.714899009502</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34441,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
@@ -34451,34 +34453,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J46" t="n">
         <v>138.9375967297389</v>
@@ -34530,31 +34532,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.47933811642139</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K5" t="n">
-        <v>131.4026932795392</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L5" t="n">
-        <v>200.2911673614428</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M5" t="n">
-        <v>254.8518464175712</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N5" t="n">
-        <v>263.6360282358816</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O5" t="n">
-        <v>235.4740647695256</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1221705786344</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.0914917803718</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.84400119281236</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K6" t="n">
-        <v>100.8967111998409</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L6" t="n">
-        <v>182.458525246982</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M6" t="n">
-        <v>232.4728850437726</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1799373498057</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O6" t="n">
-        <v>209.1659423850044</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P6" t="n">
-        <v>148.3457594185001</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.74178086603632</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.99265021817891</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L7" t="n">
-        <v>49.39330695734031</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M7" t="n">
-        <v>55.36951169766888</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N7" t="n">
-        <v>61.98984332093505</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O7" t="n">
-        <v>36.73938201981068</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P7" t="n">
-        <v>12.18237194486292</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>126.7543447812308</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>241.2229336841254</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>336.532886553265</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>406.4470099873701</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>417.6841600401038</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>380.937347341527</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>290.2717168418539</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>169.3226306893329</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>12.22173369900884</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>56.48609317832319</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>175.4879976132178</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>282.7557149662483</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>349.5149747333395</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>373.3197828838481</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>319.0704298246779</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>236.5537999396074</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>107.7065199750056</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>59.98581930323425</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>106.9690727802664</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>116.0750840398918</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>121.2519728364857</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>91.47755048103454</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>59.02033137425073</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36215,7 +36217,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127271</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37385,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
         <v>157.2826706286436</v>
@@ -37713,13 +37715,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302276</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
         <v>552.301835412911</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N44" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1064329.225513852</v>
+        <v>1039683.993762565</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>150.1450882057764</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>88.09081815943092</v>
       </c>
       <c r="F2" t="n">
         <v>187.5255871663201</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>163.2256387232003</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>13.45644170423164</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>187.5255871663201</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>20.00402729331236</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>14.10430989402848</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>204.3812272937152</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>105.0430334365232</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>81.27086566804739</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2994675790488</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>14.03295637913615</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>143.7034957973312</v>
       </c>
       <c r="D7" t="n">
-        <v>125.0721477169168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>172.8950905198961</v>
       </c>
       <c r="G8" t="n">
         <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>92.83211646882127</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0555276341844</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.9743791690577</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4031333312317</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817384</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318227</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320319</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3436201790821</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8137252499236</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.7809568069627</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.1810208351824</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>85.52047477699882</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>101.890756684063</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>155.8380202720384</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>14.57567088453339</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>335.6137863334276</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>18.37595373060415</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>273.0327157766</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>21.27864063894807</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>14.57567088453339</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>81.7720035736635</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>46.36893455027572</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>168.1158122680958</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>81.77200357366343</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>56.91547624318695</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>46.27144787880041</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>98.23289823174005</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>47.38664856090008</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>120.6088074159615</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>133.4718779172117</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>63.92502798775072</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>251.2852794514152</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>136.086307988264</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>47.38664856090008</v>
       </c>
       <c r="U31" t="n">
-        <v>184.3755225607021</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>6.632494016570329</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>91.06967859962617</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>61.36917500886953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>168.1158122680966</v>
+        <v>284.2365694783127</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>115.3249935453962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610929</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>96.32693285396816</v>
       </c>
       <c r="I38" t="n">
-        <v>8.29572184996111</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.7857799304735</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>186.7760034523335</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.4161847686721</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>126.53888249517</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>81.46084344268498</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>88.89700561060549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>110.9192708864236</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>45.23443023079569</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247499</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>72.71498498621514</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>208.1187396331154</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262262</v>
+        <v>482.822241409741</v>
       </c>
       <c r="C2" t="n">
-        <v>672.2420264262262</v>
+        <v>482.822241409741</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678661</v>
+        <v>482.822241409741</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678661</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4348,34 +4348,34 @@
         <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262262</v>
+        <v>482.822241409741</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262262</v>
+        <v>482.822241409741</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>395.8081811001083</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>395.8081811001083</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>395.8081811001083</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>236.5707260946528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
@@ -4418,43 +4418,43 @@
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>585.2279661165933</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>585.2279661165933</v>
+        <v>736.5099833074705</v>
       </c>
       <c r="X3" t="n">
-        <v>585.2279661165933</v>
+        <v>547.0901982909857</v>
       </c>
       <c r="Y3" t="n">
-        <v>395.8081811001083</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="4">
@@ -4482,16 +4482,16 @@
         <v>49.45491281910444</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404144</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404144</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="J4" t="n">
         <v>29.24882464404144</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230183</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2062.355752726349</v>
+        <v>1404.854736667761</v>
       </c>
       <c r="C5" t="n">
-        <v>1693.393235785938</v>
+        <v>1404.854736667761</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.127537179187</v>
+        <v>1046.589038061011</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>660.8007854627665</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>249.8148806731589</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301905</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711877</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>2062.355752726349</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W5" t="n">
-        <v>2062.355752726349</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.355752726349</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y5" t="n">
-        <v>2062.355752726349</v>
+        <v>1404.854736667761</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5261380428188</v>
+        <v>928.1625546147302</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0731087616919</v>
+        <v>753.7095253336032</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>604.7751156723519</v>
       </c>
       <c r="E6" t="n">
-        <v>458.901244094985</v>
+        <v>445.5376606668964</v>
       </c>
       <c r="F6" t="n">
-        <v>312.36668612187</v>
+        <v>299.0031026937814</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>162.1271089088974</v>
       </c>
       <c r="H6" t="n">
         <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>1539.527977446642</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U6" t="n">
-        <v>1539.527977446642</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V6" t="n">
-        <v>1539.527977446642</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.353274033374</v>
+        <v>1511.989690605285</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.501773827841</v>
+        <v>1304.138190399752</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.741475062887</v>
+        <v>1096.377891634798</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.6408822103605</v>
+        <v>338.6408822103593</v>
       </c>
       <c r="C7" t="n">
-        <v>169.7046992824536</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1332.09903998445</v>
+        <v>1688.031982777663</v>
       </c>
       <c r="C8" t="n">
-        <v>1332.09903998445</v>
+        <v>1688.031982777663</v>
       </c>
       <c r="D8" t="n">
-        <v>1332.09903998445</v>
+        <v>1329.766284170913</v>
       </c>
       <c r="E8" t="n">
-        <v>946.3107873862057</v>
+        <v>943.9780315726684</v>
       </c>
       <c r="F8" t="n">
-        <v>535.3248825965982</v>
+        <v>769.3365259970158</v>
       </c>
       <c r="G8" t="n">
-        <v>119.4903658344938</v>
+        <v>353.5020092349114</v>
       </c>
       <c r="H8" t="n">
-        <v>119.4903658344938</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="I8" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371254</v>
+        <v>173.6006955371258</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844091</v>
+        <v>412.4113998844109</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721412</v>
+        <v>745.5789575721442</v>
       </c>
       <c r="M8" t="n">
-        <v>1147.961497459637</v>
+        <v>1147.961497459642</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.46881589934</v>
+        <v>1561.468815899346</v>
       </c>
       <c r="O8" t="n">
-        <v>1938.596789767452</v>
+        <v>1938.596789767459</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.965789440888</v>
+        <v>2225.965789440896</v>
       </c>
       <c r="Q8" t="n">
-        <v>2393.595193823328</v>
+        <v>2393.595193823337</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185347</v>
+        <v>2405.694710185356</v>
       </c>
       <c r="S8" t="n">
-        <v>2311.924895570376</v>
+        <v>2405.694710185356</v>
       </c>
       <c r="T8" t="n">
-        <v>2311.924895570376</v>
+        <v>2405.694710185356</v>
       </c>
       <c r="U8" t="n">
-        <v>2058.333453515644</v>
+        <v>2405.694710185356</v>
       </c>
       <c r="V8" t="n">
-        <v>2058.333453515644</v>
+        <v>2074.631822841785</v>
       </c>
       <c r="W8" t="n">
-        <v>1705.56479824553</v>
+        <v>2074.631822841785</v>
       </c>
       <c r="X8" t="n">
-        <v>1332.09903998445</v>
+        <v>2074.631822841785</v>
       </c>
       <c r="Y8" t="n">
-        <v>1332.09903998445</v>
+        <v>2074.631822841785</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5297702181787</v>
+        <v>491.6774737208912</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0767409370517</v>
+        <v>317.2244444397642</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1423312758004</v>
+        <v>168.2900347785129</v>
       </c>
       <c r="E9" t="n">
-        <v>458.904876270345</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="F9" t="n">
-        <v>312.37031829723</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5994765485111</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="H9" t="n">
-        <v>81.15965691399205</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="I9" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="J9" t="n">
-        <v>104.0351264502469</v>
+        <v>104.0351264502474</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873326</v>
+        <v>277.7682440873337</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039183</v>
+        <v>557.6964019039203</v>
       </c>
       <c r="M9" t="n">
-        <v>903.7162268899244</v>
+        <v>903.7162268899274</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944934</v>
+        <v>1273.302811944938</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471365</v>
+        <v>1589.18253747137</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411577</v>
+        <v>1823.370799411582</v>
       </c>
       <c r="Q9" t="n">
-        <v>1930.000254186832</v>
+        <v>1930.000254186838</v>
       </c>
       <c r="R9" t="n">
-        <v>1904.540155931071</v>
+        <v>1930.000254186838</v>
       </c>
       <c r="S9" t="n">
-        <v>1767.528648385243</v>
+        <v>1792.98874664101</v>
       </c>
       <c r="T9" t="n">
-        <v>1573.242163355867</v>
+        <v>1792.98874664101</v>
       </c>
       <c r="U9" t="n">
-        <v>1345.147491386247</v>
+        <v>1564.89407467139</v>
       </c>
       <c r="V9" t="n">
-        <v>1109.995383154505</v>
+        <v>1329.741966439648</v>
       </c>
       <c r="W9" t="n">
-        <v>1109.995383154505</v>
+        <v>1075.504609711446</v>
       </c>
       <c r="X9" t="n">
-        <v>1109.995383154505</v>
+        <v>867.6531095059131</v>
       </c>
       <c r="Y9" t="n">
-        <v>941.5297702181787</v>
+        <v>659.8928107409592</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>195.0038417016173</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="C10" t="n">
-        <v>195.0038417016173</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="D10" t="n">
-        <v>195.0038417016173</v>
+        <v>510.9616087541572</v>
       </c>
       <c r="E10" t="n">
-        <v>195.0038417016173</v>
+        <v>363.0485151717641</v>
       </c>
       <c r="F10" t="n">
-        <v>48.11389420370693</v>
+        <v>216.1585676738537</v>
       </c>
       <c r="G10" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="H10" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="I10" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="J10" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370711</v>
       </c>
       <c r="K10" t="n">
-        <v>107.4998553139089</v>
+        <v>107.4998553139094</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663726</v>
+        <v>213.3992373663737</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658655</v>
+        <v>328.3135705658671</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739863</v>
+        <v>448.3530236739883</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502105</v>
+        <v>538.915798650213</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107187</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="Q10" t="n">
-        <v>597.3459267107187</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="R10" t="n">
-        <v>597.3459267107187</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="S10" t="n">
-        <v>597.3459267107187</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="T10" t="n">
-        <v>597.3459267107187</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="U10" t="n">
-        <v>597.3459267107187</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="V10" t="n">
-        <v>342.6614385048318</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="W10" t="n">
-        <v>342.6614385048318</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="X10" t="n">
-        <v>342.6614385048318</v>
+        <v>597.3459267107216</v>
       </c>
       <c r="Y10" t="n">
-        <v>342.6614385048318</v>
+        <v>597.3459267107216</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C11" t="n">
-        <v>921.7704558796256</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>563.5047572728752</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>563.5047572728752</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>563.5047572728752</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5059,7 +5059,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5138,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>639.3706644025388</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V13" t="n">
-        <v>639.3706644025388</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W13" t="n">
-        <v>639.3706644025388</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X13" t="n">
-        <v>639.3706644025388</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y13" t="n">
-        <v>639.3706644025388</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.348043559525</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C14" t="n">
-        <v>1514.348043559525</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.082344952775</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
-        <v>1156.082344952775</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>745.0964401631672</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066531</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796417</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535337</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y14" t="n">
-        <v>1514.348043559525</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5445,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1934.208022973022</v>
+        <v>1480.516858765519</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1111.554341825107</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>753.2886432183566</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>753.2886432183566</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>342.302738428749</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V17" t="n">
-        <v>3050.581768480028</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.813113209913</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X17" t="n">
-        <v>2324.347354948834</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y17" t="n">
-        <v>1934.208022973022</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>639.3706644025388</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="T19" t="n">
-        <v>639.3706644025388</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U19" t="n">
-        <v>639.3706644025388</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V19" t="n">
-        <v>639.3706644025388</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W19" t="n">
-        <v>639.3706644025388</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X19" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y19" t="n">
-        <v>639.3706644025388</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
         <v>892.5704713767946</v>
@@ -5743,16 +5743,16 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5770,34 +5770,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5822,28 +5822,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2923.1647776354</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>2754.228594707493</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>2604.111955295157</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.60582160917</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.60582160917</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.60582160917</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y22" t="n">
-        <v>3104.81324246564</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5995,10 +5995,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2367.25366140713</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
         <v>765.151745215813</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3036.18865157221</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>3036.18865157221</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>2886.072012159875</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>2738.158918577481</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>2738.158918577481</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2570.4560819522</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>873.0217042415178</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W25" t="n">
-        <v>3036.18865157221</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X25" t="n">
-        <v>3036.18865157221</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>3036.18865157221</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6229,16 +6229,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3093.488074938325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3093.488074938325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>3093.488074938325</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W26" t="n">
-        <v>2740.71941966821</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.25366140713</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>450.1356741135884</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C28" t="n">
-        <v>281.1994911856815</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="D28" t="n">
-        <v>131.0828517733458</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="E28" t="n">
-        <v>131.0828517733458</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="F28" t="n">
-        <v>131.0828517733458</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218342</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V28" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W28" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X28" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y28" t="n">
-        <v>631.7841389438281</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1148.130683918831</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C29" t="n">
-        <v>779.1681669784198</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1681669784198</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>731.3215358191801</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>320.3356310295725</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>320.3356310295725</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6466,16 +6466,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2982.16715683353</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2651.104269489959</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W29" t="n">
-        <v>2298.335614219845</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X29" t="n">
-        <v>1924.869855958765</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y29" t="n">
-        <v>1534.730523982953</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="30">
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S31" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>2912.153322005523</v>
+        <v>873.0217042415178</v>
       </c>
       <c r="U31" t="n">
-        <v>2725.915420429056</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V31" t="n">
-        <v>2471.230932223169</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.230932223169</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1624.638712032429</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C32" t="n">
-        <v>1624.638712032429</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>841.8735437647172</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>456.0852911664729</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>456.0852911664729</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539435</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269321</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008241</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.638712032429</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6797,7 +6797,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366697</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888693</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V34" t="n">
-        <v>2471.230932223169</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308157</v>
+        <v>1881.708680670283</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367745</v>
+        <v>1512.746163729871</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760995</v>
+        <v>1154.480465123121</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.384423162751</v>
+        <v>768.6922125248766</v>
       </c>
       <c r="F35" t="n">
-        <v>651.3985183731431</v>
+        <v>768.6922125248766</v>
       </c>
       <c r="G35" t="n">
-        <v>236.3260682181396</v>
+        <v>353.6197623698731</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.605821609171</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.140063348091</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372279</v>
+        <v>2268.308520734405</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986302</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596504</v>
@@ -7131,16 +7131,16 @@
         <v>631.7841389438281</v>
       </c>
       <c r="V37" t="n">
-        <v>631.7841389438281</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W37" t="n">
-        <v>515.2942464737309</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X37" t="n">
-        <v>287.3046955757135</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1628.178203944119</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C38" t="n">
-        <v>1259.215687003708</v>
+        <v>1775.921253518046</v>
       </c>
       <c r="D38" t="n">
-        <v>900.9499883969572</v>
+        <v>1417.655554911295</v>
       </c>
       <c r="E38" t="n">
-        <v>900.9499883969572</v>
+        <v>1031.867302313051</v>
       </c>
       <c r="F38" t="n">
-        <v>489.9640836073497</v>
+        <v>620.8813975234436</v>
       </c>
       <c r="G38" t="n">
-        <v>74.89163345234613</v>
+        <v>205.8089473684401</v>
       </c>
       <c r="H38" t="n">
-        <v>74.89163345234613</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7192,7 +7192,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052367</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539435</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269321</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.778044008241</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y38" t="n">
-        <v>2014.778044008241</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2568.556609404823</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C40" t="n">
-        <v>2568.556609404823</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>2568.556609404823</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>2568.556609404823</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F40" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366697</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>3079.426091709654</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>2857.65947627918</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>2568.556609404823</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V40" t="n">
-        <v>2568.556609404823</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W40" t="n">
-        <v>2568.556609404823</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X40" t="n">
-        <v>2568.556609404823</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y40" t="n">
-        <v>2568.556609404823</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7438,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3236.296544065056</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3236.296544065056</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2982.766067338893</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2651.703179995322</v>
       </c>
       <c r="W41" t="n">
-        <v>3197.788768583745</v>
+        <v>2651.703179995322</v>
       </c>
       <c r="X41" t="n">
-        <v>2824.323010322666</v>
+        <v>2278.237421734242</v>
       </c>
       <c r="Y41" t="n">
-        <v>2434.183678346854</v>
+        <v>1888.09808975843</v>
       </c>
     </row>
     <row r="42">
@@ -7484,19 +7484,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,37 +7505,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U43" t="n">
-        <v>3036.502954734813</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V43" t="n">
-        <v>2781.818466528926</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W43" t="n">
-        <v>2781.818466528926</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X43" t="n">
-        <v>2692.023511366699</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1986.901740067215</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218338</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794322</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450751</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W44" t="n">
-        <v>2379.052697783281</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X44" t="n">
-        <v>2005.586939522201</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y44" t="n">
-        <v>2005.586939522201</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811061</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999791</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387279</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332724</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601574</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927755</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064296</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3103.839206178695</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C46" t="n">
-        <v>3103.839206178695</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D46" t="n">
-        <v>3103.839206178695</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>2955.926112596302</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>2882.476632812246</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>2714.773796186965</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223168</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950635</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.81570227968</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250628</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609169</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609169</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609169</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178695</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U46" t="n">
-        <v>3103.839206178695</v>
+        <v>488.8994412633513</v>
       </c>
       <c r="V46" t="n">
-        <v>3103.839206178695</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="W46" t="n">
-        <v>3103.839206178695</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="X46" t="n">
-        <v>3103.839206178695</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y46" t="n">
-        <v>3103.839206178695</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
   </sheetData>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>263.3821350869446</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>255.083705381415</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>158.8733195558277</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>131.8582917620358</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>75.30793932002587</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>330.8650149868089</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>137.8890098768535</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>306.4736178311869</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>131.8582917620358</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>107.9970217577784</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>308.3141070704073</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>14.88174980530036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24183,19 +24183,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>136.8126497784314</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>292.3254924742261</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>339.9664907772532</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>46.52211668258073</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>172.1623007152691</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>83.30916272365872</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>252.7660607388419</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1007802712775</v>
+        <v>34.47359541775947</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,7 +24657,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>43.32248493590524</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24733,16 +24733,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>114.908863970638</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>172.1623007152691</v>
       </c>
       <c r="U31" t="n">
-        <v>101.8363156449107</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>348.0505476041126</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>319.8520470538273</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>190.7684683149585</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>126.4919521192238</v>
+        <v>10.37119490900773</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25213,16 +25213,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>171.1980047911948</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>198.2808315333523</v>
       </c>
       <c r="I38" t="n">
-        <v>33.28120792296487</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>34.98324540096843</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>38.93365193670368</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881767</v>
+        <v>20.77157701950375</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>222.702086222243</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,19 +25842,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>136.8126497784316</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>271.8145707770569</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>304.0065384866173</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.48334686148155e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>72.7060630367161</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>78.0930985724975</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773246.2968165614</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773246.2968165616</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165617</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773246.2968165614</v>
+        <v>773246.2968165613</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773246.2968165611</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719631</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>378397.1239740618</v>
+        <v>378397.1239740619</v>
       </c>
       <c r="F2" t="n">
         <v>378397.1239740619</v>
       </c>
       <c r="G2" t="n">
-        <v>378397.1239740618</v>
+        <v>378397.123974062</v>
       </c>
       <c r="H2" t="n">
+        <v>378397.1239740619</v>
+      </c>
+      <c r="I2" t="n">
         <v>378397.1239740617</v>
       </c>
-      <c r="I2" t="n">
-        <v>378397.123974062</v>
-      </c>
       <c r="J2" t="n">
-        <v>378397.1239740618</v>
+        <v>378397.1239740616</v>
       </c>
       <c r="K2" t="n">
         <v>378397.1239740617</v>
       </c>
       <c r="L2" t="n">
-        <v>378397.1239740618</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="M2" t="n">
-        <v>378397.1239740619</v>
+        <v>378397.1239740616</v>
       </c>
       <c r="N2" t="n">
-        <v>378397.1239740618</v>
+        <v>378397.1239740616</v>
       </c>
       <c r="O2" t="n">
-        <v>378397.1239740618</v>
+        <v>378397.1239740616</v>
       </c>
       <c r="P2" t="n">
         <v>378397.1239740617</v>
@@ -26368,16 +26368,16 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861781</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829561</v>
+        <v>59871.45719829867</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815239</v>
+        <v>219439.6828815218</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487787</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109829</v>
+        <v>15010.5034610991</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281571</v>
+        <v>57311.38215281504</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>157675.7383646806</v>
+        <v>157675.7383646799</v>
       </c>
       <c r="E4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>584.6469890061232</v>
+      </c>
+      <c r="G4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="H4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="I4" t="n">
         <v>584.646989006123</v>
-      </c>
-      <c r="F4" t="n">
-        <v>584.6469890061231</v>
-      </c>
-      <c r="G4" t="n">
-        <v>584.646989006123</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.646989006123</v>
-      </c>
-      <c r="I4" t="n">
-        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
         <v>584.646989006123</v>
@@ -26456,10 +26456,10 @@
         <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="P4" t="n">
         <v>584.6469890061228</v>
-      </c>
-      <c r="P4" t="n">
-        <v>584.6469890061227</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>89860.11994103159</v>
+        <v>89860.11994103176</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,10 +26484,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26499,10 +26499,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139327</v>
@@ -26511,7 +26511,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454780.2500946259</v>
+        <v>-454780.2500946261</v>
       </c>
       <c r="C6" t="n">
-        <v>-179813.2985589849</v>
+        <v>-179813.2985589841</v>
       </c>
       <c r="D6" t="n">
-        <v>164691.7021679552</v>
+        <v>164691.7021679527</v>
       </c>
       <c r="E6" t="n">
-        <v>84066.45354213848</v>
+        <v>79992.45816397111</v>
       </c>
       <c r="F6" t="n">
-        <v>303506.1364236623</v>
+        <v>299432.1410454928</v>
       </c>
       <c r="G6" t="n">
-        <v>303506.1364236624</v>
+        <v>299432.1410454929</v>
       </c>
       <c r="H6" t="n">
-        <v>303506.1364236623</v>
+        <v>299432.1410454928</v>
       </c>
       <c r="I6" t="n">
-        <v>303506.1364236624</v>
+        <v>299432.1410454928</v>
       </c>
       <c r="J6" t="n">
-        <v>254441.1916951177</v>
+        <v>250367.196316948</v>
       </c>
       <c r="K6" t="n">
-        <v>212246.1795587844</v>
+        <v>208172.184180615</v>
       </c>
       <c r="L6" t="n">
-        <v>288495.6329625641</v>
+        <v>284421.6375843936</v>
       </c>
       <c r="M6" t="n">
-        <v>246194.7542708468</v>
+        <v>242120.7588926775</v>
       </c>
       <c r="N6" t="n">
-        <v>303506.1364236624</v>
+        <v>299432.1410454925</v>
       </c>
       <c r="O6" t="n">
-        <v>303506.1364236625</v>
+        <v>299432.1410454925</v>
       </c>
       <c r="P6" t="n">
-        <v>303506.1364236623</v>
+        <v>299432.1410454928</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621246</v>
+        <v>902.1082727621264</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,25 +26792,25 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261639</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463366</v>
+        <v>601.4236775463389</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -26819,10 +26819,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26962,16 +26962,16 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.24072362478</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822443975</v>
+        <v>48.39760822444225</v>
       </c>
       <c r="E3" t="n">
-        <v>187.6684278311735</v>
+        <v>187.6684278311717</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598438</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017278</v>
+        <v>59.30872082017573</v>
       </c>
       <c r="E4" t="n">
-        <v>229.977777855956</v>
+        <v>229.9777778559537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598438</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017255</v>
+        <v>59.30872082017573</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559562</v>
+        <v>229.9777778559535</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598438</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017278</v>
+        <v>59.30872082017573</v>
       </c>
       <c r="M4" t="n">
-        <v>229.977777855956</v>
+        <v>229.9777778559537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>204.5379534149065</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>293.8395519128309</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>69.57494842622495</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>238.238541456688</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098424</v>
+        <v>18.1571086109843</v>
       </c>
     </row>
     <row r="4">
@@ -27554,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>133.4296435385072</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>37.06597233494178</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>207.4895075499116</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>222.7092250336117</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>13.22994759380775</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>237.6620267817835</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>23.54332530129662</v>
       </c>
       <c r="D7" t="n">
-        <v>23.54332530129552</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923916</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425545</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>233.9809552218153</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808924</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447875</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>33.54758220057214</v>
+        <v>126.3796986693932</v>
       </c>
       <c r="T8" t="n">
         <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.6707012863432</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.49542143817379</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>32.71530508318214</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320295</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.90173897034163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.65095934675492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>63.09499824121353</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3642267354451</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7638628228272</v>
+        <v>147.7638628228271</v>
       </c>
       <c r="I10" t="n">
-        <v>106.5295869551745</v>
+        <v>106.5295869551744</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98401099232986</v>
+        <v>11.98401099232963</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236504</v>
+        <v>15.28665244236475</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823913</v>
+        <v>104.1486779823912</v>
       </c>
       <c r="S10" t="n">
         <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9949191299504</v>
+        <v>220.9949191299503</v>
       </c>
       <c r="U10" t="n">
         <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-3.583531681307894e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30538,7 +30538,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452749</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651754</v>
+        <v>3.626565920651762</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487478</v>
+        <v>37.14056823487486</v>
       </c>
       <c r="I8" t="n">
-        <v>139.8131826559269</v>
+        <v>139.8131826559272</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079171</v>
+        <v>307.8002493079177</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291059</v>
+        <v>461.3127847291069</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232522</v>
+        <v>572.2993015232533</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146428</v>
+        <v>636.7932432146441</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366947</v>
+        <v>647.097223636696</v>
       </c>
       <c r="O8" t="n">
-        <v>611.0355587632138</v>
+        <v>611.035558763215</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971234</v>
+        <v>521.5047125971246</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637824</v>
+        <v>391.6283205637832</v>
       </c>
       <c r="R8" t="n">
-        <v>227.807271513141</v>
+        <v>227.8072715131414</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685194</v>
+        <v>82.64037091685211</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765306</v>
+        <v>15.87529231765309</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521403</v>
+        <v>0.2901252736521409</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94038383197891</v>
+        <v>1.940383831978914</v>
       </c>
       <c r="H9" t="n">
-        <v>18.74002279832263</v>
+        <v>18.74002279832267</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681773</v>
+        <v>66.80707491681785</v>
       </c>
       <c r="J9" t="n">
-        <v>183.3237198449899</v>
+        <v>183.3237198449903</v>
       </c>
       <c r="K9" t="n">
-        <v>313.3294365875768</v>
+        <v>313.3294365875774</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461224</v>
+        <v>421.3100947461233</v>
       </c>
       <c r="M9" t="n">
-        <v>491.6490086553578</v>
+        <v>491.6490086553588</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671814</v>
+        <v>504.6614949671824</v>
       </c>
       <c r="O9" t="n">
-        <v>461.6666742691224</v>
+        <v>461.6666742691233</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539376</v>
+        <v>370.5282073539383</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.6882940610271</v>
+        <v>247.6882940610276</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4740066907608</v>
+        <v>120.474006690761</v>
       </c>
       <c r="S9" t="n">
-        <v>36.04177863346788</v>
+        <v>36.04177863346795</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739549</v>
+        <v>7.821108515739565</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1276568310512441</v>
+        <v>0.1276568310512443</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013667</v>
+        <v>1.62675262301367</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461243</v>
+        <v>14.46330968461246</v>
       </c>
       <c r="I10" t="n">
-        <v>48.92088797208375</v>
+        <v>48.92088797208385</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0114104470663</v>
+        <v>115.0114104470665</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737696</v>
+        <v>188.99907747377</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615047</v>
+        <v>241.8537490615052</v>
       </c>
       <c r="M10" t="n">
-        <v>255.0008679874969</v>
+        <v>255.0008679874974</v>
       </c>
       <c r="N10" t="n">
-        <v>248.9375173017189</v>
+        <v>248.9375173017194</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328773</v>
+        <v>229.9340889328778</v>
       </c>
       <c r="P10" t="n">
-        <v>196.7483354233983</v>
+        <v>196.7483354233987</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870808</v>
+        <v>136.2183491870811</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477814</v>
+        <v>73.14471339477829</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106544</v>
+        <v>28.3498616210655</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331121</v>
+        <v>6.950670298331135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529104</v>
+        <v>0.08873196125529122</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33280,10 +33280,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33915,7 +33915,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34240,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34289,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34307,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095019</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
@@ -34453,34 +34453,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.9375967297389</v>
@@ -34532,31 +34532,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662056</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>294.3022689440064</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.7543447812308</v>
+        <v>126.7543447812315</v>
       </c>
       <c r="K8" t="n">
-        <v>241.2229336841254</v>
+        <v>241.2229336841264</v>
       </c>
       <c r="L8" t="n">
-        <v>336.532886553265</v>
+        <v>336.5328865532661</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873701</v>
+        <v>406.4470099873714</v>
       </c>
       <c r="N8" t="n">
-        <v>417.6841600401038</v>
+        <v>417.684160040105</v>
       </c>
       <c r="O8" t="n">
-        <v>380.937347341527</v>
+        <v>380.9373473415283</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418539</v>
+        <v>290.271716841855</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893329</v>
+        <v>169.3226306893337</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900884</v>
+        <v>12.22173369900929</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.48609317832319</v>
+        <v>56.48609317832356</v>
       </c>
       <c r="K9" t="n">
-        <v>175.4879976132178</v>
+        <v>175.4879976132185</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662483</v>
+        <v>282.7557149662491</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333395</v>
+        <v>349.5149747333405</v>
       </c>
       <c r="N9" t="n">
-        <v>373.3197828838481</v>
+        <v>373.3197828838491</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246779</v>
+        <v>319.0704298246789</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396074</v>
+        <v>236.5537999396081</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750056</v>
+        <v>107.7065199750061</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323425</v>
+        <v>59.98581930323465</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802664</v>
+        <v>106.9690727802669</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398918</v>
+        <v>116.0750840398923</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364857</v>
+        <v>121.2519728364862</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103454</v>
+        <v>91.477550481035</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425073</v>
+        <v>59.02033137425113</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
         <v>157.2826706286436</v>
@@ -37952,13 +37952,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013289</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K46" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014208</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1039683.993762565</v>
+        <v>1060331.145907422</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4888794.453803541</v>
+        <v>4888794.453803538</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81.21477241771905</v>
       </c>
       <c r="E2" t="n">
-        <v>88.09081815943092</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666384</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>104.8814412733143</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.45644170423164</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.00402729331169</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331236</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709392</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>204.3812272937152</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>111.0087697020228</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -992,10 +992,10 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>81.27086566804739</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>83.35265427883785</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>143.7034957973312</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11.73858850237263</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>172.8950905198961</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6761715944833</v>
+        <v>75.49725520908359</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808923</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447875</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1220,10 +1220,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.9743791690577</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.6413924703699</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>177.7152040405664</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8137252499236</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>103.2692284942315</v>
       </c>
       <c r="D10" t="n">
-        <v>85.52047477699882</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3642267354451</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>101.890756684063</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>60.48910589095144</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>18.37595373060415</v>
+        <v>338.8439295305893</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>76.15995137091494</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.379113942662977</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>273.0327157766</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.67682270726802</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>81.7720035736635</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>46.36893455027572</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>15.62664829319981</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.77200357366343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>147.5395905665082</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.27144787880041</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>47.38664856090008</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>223.1051541775391</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>149.9420435034461</v>
       </c>
       <c r="Y26" t="n">
-        <v>133.4718779172117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>53.54735467376804</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>301.6716750929695</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>251.2852794514152</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>47.38664856090008</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>281.025628046754</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>210.1784092540505</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>91.06967859962617</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>20.95866062610926</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>284.2365694783127</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>4.880279655985916</v>
       </c>
       <c r="X37" t="n">
-        <v>20.95866062610929</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>96.32693285396816</v>
+        <v>142.0975176632383</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>186.7760034523335</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.4161847686721</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>117.4137306658393</v>
       </c>
     </row>
     <row r="42">
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>47.38664856090008</v>
       </c>
       <c r="U43" t="n">
-        <v>81.46084344268498</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>110.9192708864236</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.689204780378</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>208.1187396331154</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.6493049874275</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.822241409741</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="C2" t="n">
-        <v>482.822241409741</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="D2" t="n">
-        <v>482.822241409741</v>
+        <v>400.7871177554782</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062754</v>
+        <v>211.3673327389936</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262259</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262259</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262259</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="X2" t="n">
-        <v>482.822241409741</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.822241409741</v>
+        <v>482.8222414097399</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W3" t="n">
-        <v>736.5099833074705</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="X3" t="n">
-        <v>547.0901982909857</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6704132745007</v>
+        <v>750.1023486652789</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910444</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910444</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910444</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230169</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170704</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396313</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910382</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1404.854736667761</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="C5" t="n">
-        <v>1404.854736667761</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D5" t="n">
-        <v>1046.589038061011</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E5" t="n">
-        <v>660.8007854627665</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>249.8148806731589</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4603,16 +4603,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.994068643573</v>
+        <v>1725.266869154999</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.854736667761</v>
+        <v>1335.127537179187</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>928.1625546147302</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="C6" t="n">
-        <v>753.7095253336032</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D6" t="n">
-        <v>604.7751156723519</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E6" t="n">
-        <v>445.5376606668964</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F6" t="n">
-        <v>299.0031026937814</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>162.1271089088974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4676,22 +4676,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>1766.227047333487</v>
+        <v>1682.032447051832</v>
       </c>
       <c r="U6" t="n">
-        <v>1766.227047333487</v>
+        <v>1453.930857185096</v>
       </c>
       <c r="V6" t="n">
-        <v>1766.227047333487</v>
+        <v>1218.778748953354</v>
       </c>
       <c r="W6" t="n">
-        <v>1511.989690605285</v>
+        <v>1218.778748953354</v>
       </c>
       <c r="X6" t="n">
-        <v>1304.138190399752</v>
+        <v>1010.927248747821</v>
       </c>
       <c r="Y6" t="n">
-        <v>1096.377891634798</v>
+        <v>803.166949982867</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.6408822103593</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C7" t="n">
-        <v>193.4858359504288</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>373.3993995426887</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>205.2665701377071</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>55.22635664149976</v>
       </c>
       <c r="I7" t="n">
         <v>43.36919653809306</v>
@@ -4728,7 +4728,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.031982777663</v>
+        <v>571.658237270658</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.031982777663</v>
+        <v>202.6957203302463</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.766284170913</v>
+        <v>202.6957203302463</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9780315726684</v>
+        <v>202.6957203302463</v>
       </c>
       <c r="F8" t="n">
-        <v>769.3365259970158</v>
+        <v>195.7502195810428</v>
       </c>
       <c r="G8" t="n">
-        <v>353.5020092349114</v>
+        <v>119.4903658344937</v>
       </c>
       <c r="H8" t="n">
-        <v>48.11389420370711</v>
+        <v>119.4903658344937</v>
       </c>
       <c r="I8" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371258</v>
+        <v>173.6006955371263</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844109</v>
+        <v>412.4113998844114</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721442</v>
+        <v>745.5789575721449</v>
       </c>
       <c r="M8" t="n">
         <v>1147.961497459642</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.468815899346</v>
+        <v>1561.468815899347</v>
       </c>
       <c r="O8" t="n">
         <v>1938.596789767459</v>
@@ -4843,13 +4843,13 @@
         <v>2074.631822841785</v>
       </c>
       <c r="W8" t="n">
-        <v>2074.631822841785</v>
+        <v>1721.863167571671</v>
       </c>
       <c r="X8" t="n">
-        <v>2074.631822841785</v>
+        <v>1348.397409310591</v>
       </c>
       <c r="Y8" t="n">
-        <v>2074.631822841785</v>
+        <v>958.2580773347797</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>491.6774737208912</v>
+        <v>677.273346124656</v>
       </c>
       <c r="C9" t="n">
-        <v>317.2244444397642</v>
+        <v>502.8203168435289</v>
       </c>
       <c r="D9" t="n">
-        <v>168.2900347785129</v>
+        <v>353.8859071822777</v>
       </c>
       <c r="E9" t="n">
-        <v>48.11389420370711</v>
+        <v>194.6484521768222</v>
       </c>
       <c r="F9" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="G9" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="H9" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="I9" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="J9" t="n">
         <v>104.0351264502474</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873337</v>
+        <v>277.7682440873338</v>
       </c>
       <c r="L9" t="n">
         <v>557.6964019039203</v>
@@ -4910,25 +4910,25 @@
         <v>1930.000254186838</v>
       </c>
       <c r="S9" t="n">
-        <v>1792.98874664101</v>
+        <v>1930.000254186838</v>
       </c>
       <c r="T9" t="n">
-        <v>1792.98874664101</v>
+        <v>1750.489947075155</v>
       </c>
       <c r="U9" t="n">
-        <v>1564.89407467139</v>
+        <v>1750.489947075155</v>
       </c>
       <c r="V9" t="n">
-        <v>1329.741966439648</v>
+        <v>1515.337838843412</v>
       </c>
       <c r="W9" t="n">
-        <v>1075.504609711446</v>
+        <v>1261.100482115211</v>
       </c>
       <c r="X9" t="n">
-        <v>867.6531095059131</v>
+        <v>1053.248981909678</v>
       </c>
       <c r="Y9" t="n">
-        <v>659.8928107409592</v>
+        <v>845.4886831447241</v>
       </c>
     </row>
     <row r="10">
@@ -4941,28 +4941,28 @@
         <v>597.3459267107216</v>
       </c>
       <c r="C10" t="n">
-        <v>597.3459267107216</v>
+        <v>493.0335746963464</v>
       </c>
       <c r="D10" t="n">
-        <v>510.9616087541572</v>
+        <v>342.9169352840106</v>
       </c>
       <c r="E10" t="n">
-        <v>363.0485151717641</v>
+        <v>195.0038417016175</v>
       </c>
       <c r="F10" t="n">
-        <v>216.1585676738537</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="G10" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="H10" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="I10" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="J10" t="n">
-        <v>48.11389420370711</v>
+        <v>48.11389420370713</v>
       </c>
       <c r="K10" t="n">
         <v>107.4998553139094</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1381.278680221567</v>
+        <v>1250.80968089488</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5059,7 +5059,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1767.878520285689</v>
+        <v>1637.409520959002</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5199,52 +5199,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438285</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V13" t="n">
-        <v>377.0996507379416</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W13" t="n">
-        <v>87.68248070098099</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X13" t="n">
-        <v>87.68248070098099</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.68248070098099</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.798686923957</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649823</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2770.00361722497</v>
+        <v>2336.007922691473</v>
       </c>
       <c r="X14" t="n">
-        <v>2396.53785896389</v>
+        <v>1962.542164430393</v>
       </c>
       <c r="Y14" t="n">
-        <v>2006.398526988078</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,31 +5375,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>409.70322035075</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>240.7670374228431</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>240.7670374228431</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>240.7670374228431</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>240.7670374228431</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U16" t="n">
-        <v>631.7841389438286</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V16" t="n">
-        <v>377.0996507379417</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W16" t="n">
-        <v>87.6824807009811</v>
+        <v>409.70322035075</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218343</v>
+        <v>409.70322035075</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>409.70322035075</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1480.516858765519</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C17" t="n">
-        <v>1111.554341825107</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D17" t="n">
-        <v>753.2886432183566</v>
+        <v>936.970515533955</v>
       </c>
       <c r="E17" t="n">
-        <v>753.2886432183566</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>342.302738428749</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2257.256030805452</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y17" t="n">
-        <v>1867.11669882964</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,7 +5612,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>439.7839516080504</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>270.8477686801434</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>120.7311292678077</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>838.2890224104441</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T19" t="n">
-        <v>838.2890224104441</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U19" t="n">
-        <v>549.1861555360877</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V19" t="n">
-        <v>294.5016673302008</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W19" t="n">
-        <v>294.5016673302008</v>
+        <v>439.7839516080504</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218343</v>
+        <v>439.7839516080504</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218343</v>
+        <v>439.7839516080504</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1308.370295943747</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>939.4077790033357</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,34 +5849,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
         <v>66.51211643218342</v>
@@ -5910,52 +5910,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438285</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379416</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W22" t="n">
-        <v>377.0996507379416</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="X22" t="n">
-        <v>149.1100998399243</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218342</v>
+        <v>377.0996507379413</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.208022973022</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C23" t="n">
-        <v>1934.208022973022</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W23" t="n">
-        <v>2741.012457539436</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.546699278356</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.807863037144</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6074,19 +6074,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596504</v>
@@ -6174,25 +6174,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T25" t="n">
-        <v>873.0217042415178</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U25" t="n">
-        <v>583.9188373671614</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V25" t="n">
-        <v>583.9188373671614</v>
+        <v>503.8423800515371</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302007</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1636.597933493125</v>
+        <v>1533.918936517076</v>
       </c>
       <c r="C26" t="n">
-        <v>1267.635416552713</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="D26" t="n">
-        <v>909.3697179459625</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E26" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2158.017852261501</v>
+        <v>1920.518776581197</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.197773557246</v>
+        <v>1920.518776581197</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>518.4459618444147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C28" t="n">
-        <v>349.5097789165078</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D28" t="n">
-        <v>199.3931395041721</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E28" t="n">
-        <v>199.3931395041721</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>199.3931395041721</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181845</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y28" t="n">
-        <v>700.0944266746544</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1844.338003964587</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C29" t="n">
-        <v>1475.375487024175</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>1117.109788417424</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>731.3215358191801</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>320.3356310295725</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>320.3356310295725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6466,16 +6466,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W29" t="n">
-        <v>2994.5429342656</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X29" t="n">
-        <v>2621.07717600452</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y29" t="n">
-        <v>2230.937844028708</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.51211643218342</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>873.0217042415178</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U31" t="n">
-        <v>583.9188373671614</v>
+        <v>637.0227350638876</v>
       </c>
       <c r="V31" t="n">
-        <v>583.9188373671614</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5016673302007</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218342</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1569.101759311879</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C32" t="n">
-        <v>1200.139242371468</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D32" t="n">
-        <v>841.8735437647172</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="E32" t="n">
-        <v>456.0852911664729</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>456.0852911664729</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
@@ -6703,7 +6703,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.075344883007</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W32" t="n">
-        <v>2719.306689612893</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2345.840931351813</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y32" t="n">
-        <v>1955.701599376001</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="33">
@@ -6885,19 +6885,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181845</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181845</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U34" t="n">
-        <v>631.7841389438281</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V34" t="n">
-        <v>377.0996507379413</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W34" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X34" t="n">
         <v>66.51211643218342</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1881.708680670283</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1512.746163729871</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>1154.480465123121</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>768.6922125248766</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>768.6922125248766</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>353.6197623698731</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265599</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734405</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y35" t="n">
-        <v>2268.308520734405</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596504</v>
@@ -7122,25 +7122,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181845</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438281</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="V37" t="n">
-        <v>377.0996507379413</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="W37" t="n">
-        <v>87.68248070098065</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X37" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2144.883770458458</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C38" t="n">
-        <v>1775.921253518046</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="D38" t="n">
-        <v>1417.655554911295</v>
+        <v>1006.819119944518</v>
       </c>
       <c r="E38" t="n">
-        <v>1031.867302313051</v>
+        <v>621.0308673462741</v>
       </c>
       <c r="F38" t="n">
-        <v>620.8813975234436</v>
+        <v>210.0449625566666</v>
       </c>
       <c r="G38" t="n">
-        <v>205.8089473684401</v>
+        <v>210.0449625566666</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7192,7 +7192,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052367</v>
@@ -7213,13 +7213,13 @@
         <v>2884.252265792694</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X38" t="n">
-        <v>2531.48361052258</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y38" t="n">
-        <v>2531.48361052258</v>
+        <v>2120.647175555802</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C40" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D40" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218339</v>
@@ -7359,25 +7359,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181845</v>
+        <v>832.0660869429006</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181845</v>
+        <v>610.2994715124266</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181845</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X40" t="n">
-        <v>732.2243760683527</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y40" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1888.09808975843</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1519.135572818019</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1160.869874211268</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3236.296544065056</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3236.296544065056</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2982.766067338893</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2651.703179995322</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W41" t="n">
-        <v>2651.703179995322</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X41" t="n">
-        <v>2278.237421734242</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y41" t="n">
-        <v>1888.09808975843</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596504</v>
@@ -7599,10 +7599,10 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181845</v>
+        <v>873.0217042415178</v>
       </c>
       <c r="U43" t="n">
-        <v>838.6033255730482</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V43" t="n">
         <v>583.9188373671614</v>
@@ -7611,10 +7611,10 @@
         <v>294.5016673302007</v>
       </c>
       <c r="X43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1986.901740067215</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528559</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389512</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
@@ -7681,19 +7681,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136265</v>
+        <v>3008.558380630832</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136265</v>
+        <v>3008.558380630832</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.54649786615</v>
+        <v>2655.789725360718</v>
       </c>
       <c r="X44" t="n">
-        <v>2489.08073960507</v>
+        <v>2282.323967099638</v>
       </c>
       <c r="Y44" t="n">
-        <v>2098.941407629259</v>
+        <v>1892.184635123826</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218339</v>
@@ -7839,19 +7839,19 @@
         <v>699.1203903877102</v>
       </c>
       <c r="U46" t="n">
-        <v>488.8994412633513</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="V46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="W46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="X46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="Y46" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300937</v>
       </c>
     </row>
   </sheetData>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>263.3821350869446</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>325.7488327651021</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.8733195558277</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>123.7963542882115</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>330.8650149868089</v>
+        <v>10.39703918682369</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>89.86585688811329</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>379.5512561295988</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>137.8890098768535</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>92.75713993930114</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>107.9970217577784</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>308.3141070704073</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>77.37908764444929</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>151.620172805428</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.8126497784314</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>207.1434510541748</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.9664907772532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,22 +24414,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>172.1623007152691</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>29.03248914628892</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>219.7890571750229</v>
       </c>
       <c r="Y26" t="n">
-        <v>252.7660607388419</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.47359541775947</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1623007152691</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>81.06216657051107</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>43.32248493590524</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24891,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1623007152691</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.186210158858898</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>171.7519608182113</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>319.8520470538273</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25125,7 +25125,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>168.8103647053326</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>204.7509947629279</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>10.37119490900773</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>111.4435131414771</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>281.6427186806051</v>
       </c>
       <c r="X37" t="n">
-        <v>204.7509947629279</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>198.2808315333523</v>
+        <v>152.5102467240821</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>38.93365193670368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.77157701950375</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>268.8242079902143</v>
       </c>
     </row>
     <row r="42">
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>172.1623007152691</v>
       </c>
       <c r="U43" t="n">
-        <v>204.7509947629279</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>271.8145707770569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>46.30596717852401</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>78.0930985724975</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.48833833640055</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773246.2968165616</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165613</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773246.2968165614</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773246.2968165617</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773246.2968165613</v>
+        <v>773246.2968165616</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="E2" t="n">
-        <v>378397.1239740619</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="F2" t="n">
-        <v>378397.1239740619</v>
+        <v>378397.1239740618</v>
       </c>
       <c r="G2" t="n">
+        <v>378397.1239740617</v>
+      </c>
+      <c r="H2" t="n">
+        <v>378397.1239740618</v>
+      </c>
+      <c r="I2" t="n">
         <v>378397.123974062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>378397.1239740619</v>
-      </c>
-      <c r="I2" t="n">
-        <v>378397.1239740617</v>
       </c>
       <c r="J2" t="n">
         <v>378397.1239740616</v>
@@ -26349,10 +26349,10 @@
         <v>378397.1239740616</v>
       </c>
       <c r="N2" t="n">
-        <v>378397.1239740616</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="O2" t="n">
-        <v>378397.1239740616</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="P2" t="n">
         <v>378397.1239740617</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>392510.2442861779</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829867</v>
+        <v>59871.45719829868</v>
       </c>
       <c r="E3" t="n">
         <v>219439.6828815218</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>91259.95686487788</v>
       </c>
       <c r="L3" t="n">
         <v>15010.5034610991</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281504</v>
+        <v>57311.38215281507</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
@@ -26426,16 +26426,16 @@
         <v>157675.7383646799</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
         <v>584.646989006123</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
@@ -26490,10 +26490,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26502,13 +26502,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454780.2500946261</v>
+        <v>-454780.2500946257</v>
       </c>
       <c r="C6" t="n">
-        <v>-179813.2985589841</v>
+        <v>-179813.2985589846</v>
       </c>
       <c r="D6" t="n">
-        <v>164691.7021679527</v>
+        <v>164691.7021679528</v>
       </c>
       <c r="E6" t="n">
-        <v>79992.45816397111</v>
+        <v>83659.05400432361</v>
       </c>
       <c r="F6" t="n">
-        <v>299432.1410454928</v>
+        <v>303098.7368858454</v>
       </c>
       <c r="G6" t="n">
-        <v>299432.1410454929</v>
+        <v>303098.7368858454</v>
       </c>
       <c r="H6" t="n">
-        <v>299432.1410454928</v>
+        <v>303098.7368858454</v>
       </c>
       <c r="I6" t="n">
-        <v>299432.1410454928</v>
+        <v>303098.7368858457</v>
       </c>
       <c r="J6" t="n">
-        <v>250367.196316948</v>
+        <v>254033.7921573006</v>
       </c>
       <c r="K6" t="n">
-        <v>208172.184180615</v>
+        <v>211838.7800209674</v>
       </c>
       <c r="L6" t="n">
-        <v>284421.6375843936</v>
+        <v>288088.2334247462</v>
       </c>
       <c r="M6" t="n">
-        <v>242120.7588926775</v>
+        <v>245787.3547330302</v>
       </c>
       <c r="N6" t="n">
-        <v>299432.1410454925</v>
+        <v>303098.7368858454</v>
       </c>
       <c r="O6" t="n">
-        <v>299432.1410454925</v>
+        <v>303098.7368858454</v>
       </c>
       <c r="P6" t="n">
-        <v>299432.1410454928</v>
+        <v>303098.7368858454</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463389</v>
+        <v>601.423677546339</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
@@ -26822,13 +26822,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>305.2407236247798</v>
       </c>
       <c r="D3" t="n">
         <v>48.39760822444225</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017573</v>
+        <v>59.30872082017574</v>
       </c>
       <c r="E4" t="n">
-        <v>229.9777778559537</v>
+        <v>229.9777778559536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598438</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017573</v>
+        <v>59.30872082017574</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559535</v>
+        <v>229.9777778559536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017573</v>
+        <v>59.30872082017574</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559537</v>
+        <v>229.9777778559536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>273.4682692029639</v>
       </c>
       <c r="E2" t="n">
-        <v>293.8395519128309</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988706</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>61.65174237655305</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409151</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846323</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>238.238541456688</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.1571086109843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>146.9979079094025</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494178</v>
+        <v>57.06999962825421</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159729</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4895075499116</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>258.7223309764462</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13.22994759380775</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,16 +27748,16 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>109.4105640319259</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>23.54332530129662</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>97.41557694471089</v>
       </c>
       <c r="J7" t="n">
         <v>18.15430933923925</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>233.9809552218153</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>336.1789163853997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447875</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,10 +27940,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.6707012863432</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.4031333312317</v>
@@ -27982,13 +27982,13 @@
         <v>25.20549727320295</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3436201790821</v>
+        <v>14.62841613851566</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>63.97759260439632</v>
       </c>
       <c r="D10" t="n">
-        <v>63.09499824121353</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
         <v>147.7638628228271</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33915,7 +33915,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781694</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646072</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061146</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520818</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400467</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
